--- a/doorcalculate/polls/document_gen/to_excel.xlsx
+++ b/doorcalculate/polls/document_gen/to_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,30 +567,288 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Grezza PN ґрунт</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SlimTS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Левое</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>лицьова</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ґрунт</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>31980</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Внутрішнє</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>тил</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Grezza PN ґрунт</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SlimTS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Правое</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>лицьова</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ґрунт</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Чорний</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>47970</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Всього за дверні блоки: 0.0 грн
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Зовнішнє</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>тил</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Всього за дверні блоки: 79950.0 грн
 		Знижка:0.0%
-		Усього, з урахуванням знижки: 0.0 грн
-		Доставка на склад (об'єкт) без вивантаження та занесення на поверх: 600.0 грн
+		Усього, з урахуванням знижки: 79950.0 грн
+		Доставка на склад (об'єкт) без вивантаження та занесення на поверх: 0.0 грн
 		Монтаж:0.0грнЗаміри: 0.0 грн
-		Всього за послуги: 600.0 грн
-		Всього сума замовлення: 600.0 грн
+		Всього за послуги: 0.0 грн
+		Всього сума замовлення: 79950.0 грн
 		Передплата: 0.0 % 
 		Передплата: 0.0 грн 
-		Залишок: 600.0 грн</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Місто: Замовник: 
+		Залишок: 79950.0 грн</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Місто: Кам'янськеЗамовник: Иванов
 		Доставка замовлення: 
-		Контакти: 
+		Контакти: 02369525
 		Ел.Адреса:</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Висота ручки: 1000 мм. від низу полотна.
 			Зазор від підлоги до полотна: 8 мм.
@@ -600,48 +858,98 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="81">
     <mergeCell ref="P3"/>
     <mergeCell ref="H3"/>
+    <mergeCell ref="C7"/>
     <mergeCell ref="J3"/>
-    <mergeCell ref="O7:U16"/>
-    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="H11:N20"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="O11:U20"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="D5"/>
     <mergeCell ref="T3"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="E3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:J2"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A11:G20"/>
     <mergeCell ref="F3"/>
-    <mergeCell ref="A7:G16"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="G3"/>
     <mergeCell ref="I3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="E1:F2"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="H7:N16"/>
-    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
